--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,302 @@
           <t>screen1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>198.8163606010017</v>
+      </c>
+      <c r="B9" t="n">
+        <v>296.3489148580968</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>198.8163606010017</v>
+      </c>
+      <c r="B10" t="n">
+        <v>296.3489148580968</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>96.28213689482472</v>
+      </c>
+      <c r="B11" t="n">
+        <v>85.02838063439064</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112.5375626043406</v>
+      </c>
+      <c r="B12" t="n">
+        <v>107.5358931552587</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>96.28213689482472</v>
+      </c>
+      <c r="B13" t="n">
+        <v>85.02838063439064</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>96.28213689482472</v>
+      </c>
+      <c r="B14" t="n">
+        <v>85.02838063439064</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>162.5542570951586</v>
+      </c>
+      <c r="B15" t="n">
+        <v>327.6093489148581</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>135.0450751252087</v>
+      </c>
+      <c r="B16" t="n">
+        <v>116.288814691152</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>68.77295492487478</v>
+      </c>
+      <c r="B17" t="n">
+        <v>136.2954924874792</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B18" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B19" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B20" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B21" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B22" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B23" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B24" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55.01836393989983</v>
+      </c>
+      <c r="B25" t="n">
+        <v>118.7896494156928</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>screen1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>396.3823038397329</v>
+      </c>
+      <c r="B26" t="n">
+        <v>523.9248747913189</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>screen2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>396.3823038397329</v>
+      </c>
+      <c r="B27" t="n">
+        <v>523.9248747913189</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>screen2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>396.3823038397329</v>
+      </c>
+      <c r="B28" t="n">
+        <v>523.9248747913189</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>screen2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>396.3823038397329</v>
+      </c>
+      <c r="B29" t="n">
+        <v>523.9248747913189</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>screen2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>asdawdasdawdasdawd</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>396.3823038397329</v>
+      </c>
+      <c r="B30" t="n">
+        <v>523.9248747913189</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>screen2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>asdawdasdawdasdawd</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
